--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\codex\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353AEBB-6710-48D1-AAF6-A5ABF7CCBFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE36BA-6F44-4F93-89F8-752555B53D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
